--- a/data/trans_orig/P21D1_2023-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P21D1_2023-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>61310</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>47692</v>
+        <v>48075</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>78055</v>
+        <v>80019</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.2417065906313125</v>
+        <v>0.2417065906313126</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1880177509977203</v>
+        <v>0.1895280235206384</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3077196439549247</v>
+        <v>0.3154640158926425</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>68</v>
@@ -762,19 +762,19 @@
         <v>43771</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>34818</v>
+        <v>34098</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>54705</v>
+        <v>53189</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1201280219852543</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0955580744342156</v>
+        <v>0.09358058793978953</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1501373403504154</v>
+        <v>0.145977969125749</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>124</v>
@@ -783,19 +783,19 @@
         <v>105081</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>86737</v>
+        <v>87180</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>124718</v>
+        <v>125337</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1700276336936002</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1403470268740694</v>
+        <v>0.1410630939140301</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2018019846668176</v>
+        <v>0.2028044889302668</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>187853</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>171358</v>
+        <v>169114</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>202683</v>
+        <v>201258</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.740584306762375</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6755562907315475</v>
+        <v>0.6667094104831489</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7990492961719806</v>
+        <v>0.793433932901542</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>554</v>
@@ -833,19 +833,19 @@
         <v>313880</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>302197</v>
+        <v>303664</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>323392</v>
+        <v>324141</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8614414790598568</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.829377967503188</v>
+        <v>0.8334039043782885</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8875463829180071</v>
+        <v>0.8896038696096795</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>794</v>
@@ -854,19 +854,19 @@
         <v>501733</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>480393</v>
+        <v>480503</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>520206</v>
+        <v>519172</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8118379507655751</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7773084705203533</v>
+        <v>0.7774868677379556</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8417292694947749</v>
+        <v>0.8400553381209754</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>4492</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1131</v>
+        <v>1125</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10754</v>
+        <v>10781</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01770910260631246</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.00446072889787438</v>
+        <v>0.004434999861302638</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04239578583749436</v>
+        <v>0.04250424942282377</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>11</v>
@@ -904,19 +904,19 @@
         <v>6013</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3261</v>
+        <v>3201</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>10770</v>
+        <v>10374</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01650304482300492</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.008950949594734497</v>
+        <v>0.008785773688001531</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.02955775375704059</v>
+        <v>0.02847241686203883</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>15</v>
@@ -925,19 +925,19 @@
         <v>10505</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>5960</v>
+        <v>5752</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>17858</v>
+        <v>17910</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.01699804830721336</v>
+        <v>0.01699804830721337</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.009644371609526586</v>
+        <v>0.009307267133643821</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.02889576301647771</v>
+        <v>0.02898020008255223</v>
       </c>
     </row>
     <row r="7">
@@ -979,7 +979,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.009589736036090877</v>
+        <v>0.009590321395584547</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1</v>
@@ -991,7 +991,7 @@
         <v>0</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>3455</v>
+        <v>4230</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.001136367233611201</v>
@@ -1000,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.005590995848320519</v>
+        <v>0.006844272183458702</v>
       </c>
     </row>
     <row r="8">
@@ -1092,19 +1092,19 @@
         <v>271367</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>237111</v>
+        <v>237049</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>308740</v>
+        <v>304798</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2828184762918948</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2471169949972659</v>
+        <v>0.2470519107746998</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3217680999831544</v>
+        <v>0.3176599901415796</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>229</v>
@@ -1113,19 +1113,19 @@
         <v>203129</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>179204</v>
+        <v>176635</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>228833</v>
+        <v>228974</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2061138352000565</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1818372730803035</v>
+        <v>0.1792301453917159</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2321951449846448</v>
+        <v>0.2323383807745643</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>428</v>
@@ -1134,19 +1134,19 @@
         <v>474496</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>436696</v>
+        <v>435032</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>521266</v>
+        <v>518812</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2439533190054705</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2245189565285605</v>
+        <v>0.2236637596888455</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2679991919874877</v>
+        <v>0.2667371952097928</v>
       </c>
     </row>
     <row r="10">
@@ -1163,19 +1163,19 @@
         <v>672168</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>634138</v>
+        <v>635638</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>706204</v>
+        <v>708512</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.7005327359445331</v>
+        <v>0.7005327359445332</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.6608981278447501</v>
+        <v>0.6624609606681172</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.7360049324895505</v>
+        <v>0.7384098731809298</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>1038</v>
@@ -1184,19 +1184,19 @@
         <v>763599</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>737129</v>
+        <v>737338</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>787912</v>
+        <v>789149</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.7748195324227896</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7479606208519375</v>
+        <v>0.7481721252844994</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.7994889918970182</v>
+        <v>0.8007446913153583</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1661</v>
@@ -1205,19 +1205,19 @@
         <v>1435768</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1387059</v>
+        <v>1391162</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1473235</v>
+        <v>1477160</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.7381728055457354</v>
+        <v>0.7381728055457353</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.713130100760583</v>
+        <v>0.715239480324289</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.757436054705501</v>
+        <v>0.7594538386594629</v>
       </c>
     </row>
     <row r="11">
@@ -1234,19 +1234,19 @@
         <v>15975</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>8083</v>
+        <v>8338</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>30731</v>
+        <v>32298</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01664878776357203</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.008423594430774759</v>
+        <v>0.008689951611611792</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03202764182426725</v>
+        <v>0.03366060575308893</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>23</v>
@@ -1255,19 +1255,19 @@
         <v>18042</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>11675</v>
+        <v>11450</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>27977</v>
+        <v>27664</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01830703397187076</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01184644882728477</v>
+        <v>0.01161822896503275</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.02838808732700312</v>
+        <v>0.02807096740371871</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>35</v>
@@ -1276,19 +1276,19 @@
         <v>34017</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>22800</v>
+        <v>23517</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>49584</v>
+        <v>55137</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01748899767509464</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01172204920888434</v>
+        <v>0.01209094669560682</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.02549242588309413</v>
+        <v>0.02834762304673921</v>
       </c>
     </row>
     <row r="12">
@@ -1321,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>4824</v>
+        <v>3783</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.0007595984052831607</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.004895195423405954</v>
+        <v>0.003838393017337824</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>3753</v>
+        <v>3783</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.0003848777736995159</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.001929509348129677</v>
+        <v>0.001944983564921629</v>
       </c>
     </row>
     <row r="13">
@@ -1443,19 +1443,19 @@
         <v>80653</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>65006</v>
+        <v>61392</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>99189</v>
+        <v>98817</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.232288219240143</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1872256039455592</v>
+        <v>0.176816316637416</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2856760984243463</v>
+        <v>0.2846026764663823</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>80</v>
@@ -1464,19 +1464,19 @@
         <v>66065</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>52129</v>
+        <v>54153</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>79611</v>
+        <v>80771</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1930370037047514</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1523181467774893</v>
+        <v>0.1582307445527422</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2326188567417097</v>
+        <v>0.236007380797655</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>148</v>
@@ -1485,19 +1485,19 @@
         <v>146717</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>124383</v>
+        <v>123767</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>170701</v>
+        <v>169060</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.2128040640721989</v>
+        <v>0.2128040640721988</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1804089749541099</v>
+        <v>0.1795164741858517</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2475904269803015</v>
+        <v>0.2452113563090131</v>
       </c>
     </row>
     <row r="15">
@@ -1514,19 +1514,19 @@
         <v>256204</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>236766</v>
+        <v>236198</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>272629</v>
+        <v>275041</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.7378957835131047</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.6819110287193</v>
+        <v>0.6802773687487715</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7852018630484648</v>
+        <v>0.7921471103106177</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>352</v>
@@ -1535,19 +1535,19 @@
         <v>266138</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>251594</v>
+        <v>252295</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>280079</v>
+        <v>279732</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.7776350828758243</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.7351385084525279</v>
+        <v>0.7371887132779703</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.8183708856430577</v>
+        <v>0.8173572657336178</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>596</v>
@@ -1556,19 +1556,19 @@
         <v>522341</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>499458</v>
+        <v>498663</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>545907</v>
+        <v>547341</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.7576222216497901</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.7244321362706196</v>
+        <v>0.7232780473257887</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.79180275400332</v>
+        <v>0.7938836323837437</v>
       </c>
     </row>
     <row r="16">
@@ -1585,19 +1585,19 @@
         <v>10352</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3853</v>
+        <v>3657</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>23218</v>
+        <v>21833</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02981599724675236</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01109674915815569</v>
+        <v>0.01053132033155671</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06687153197082711</v>
+        <v>0.06288125129958771</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>11</v>
@@ -1606,19 +1606,19 @@
         <v>10037</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>5603</v>
+        <v>4680</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>18139</v>
+        <v>18320</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02932791341942432</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01637204725903533</v>
+        <v>0.01367405666349579</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05300126195668785</v>
+        <v>0.05352929357783753</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>17</v>
@@ -1627,19 +1627,19 @@
         <v>20390</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>11774</v>
+        <v>11686</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>34621</v>
+        <v>35590</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.02957371427801095</v>
+        <v>0.02957371427801096</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01707759709196249</v>
+        <v>0.01694979775221074</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05021571556077437</v>
+        <v>0.05162043205468621</v>
       </c>
     </row>
     <row r="17">
@@ -1778,19 +1778,19 @@
         <v>413330</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>374400</v>
+        <v>371714</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>452966</v>
+        <v>456887</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2648914989560903</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2399424768044043</v>
+        <v>0.2382208570119922</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2902932796659388</v>
+        <v>0.2928062971915901</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>377</v>
@@ -1799,19 +1799,19 @@
         <v>312964</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>286603</v>
+        <v>282269</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>349173</v>
+        <v>341148</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1849536091793548</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1693747364093588</v>
+        <v>0.1668136117730219</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2063520734439649</v>
+        <v>0.2016095585784561</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>700</v>
@@ -1820,19 +1820,19 @@
         <v>726294</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>677717</v>
+        <v>680070</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>781042</v>
+        <v>783995</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2233035158267164</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2083680558213697</v>
+        <v>0.2090916859921536</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2401360054180643</v>
+        <v>0.2410439057130418</v>
       </c>
     </row>
     <row r="20">
@@ -1849,19 +1849,19 @@
         <v>1116225</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1073131</v>
+        <v>1074637</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1154624</v>
+        <v>1157710</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7153574278516498</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6877398212576673</v>
+        <v>0.6887049700493104</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7399661592333957</v>
+        <v>0.7419438227874852</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1944</v>
@@ -1870,19 +1870,19 @@
         <v>1343616</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1308696</v>
+        <v>1314535</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1371669</v>
+        <v>1374756</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.7940413481655952</v>
+        <v>0.7940413481655951</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7734043827868485</v>
+        <v>0.7768548233799453</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8106194278800911</v>
+        <v>0.8124440507394183</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>3051</v>
@@ -1891,19 +1891,19 @@
         <v>2459842</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2402212</v>
+        <v>2402724</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>2509780</v>
+        <v>2507675</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7562930287251384</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7385743356330988</v>
+        <v>0.7387318998302936</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7716470464503398</v>
+        <v>0.7709998145591153</v>
       </c>
     </row>
     <row r="21">
@@ -1920,19 +1920,19 @@
         <v>30819</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>19924</v>
+        <v>18718</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>53804</v>
+        <v>48667</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01975107319225994</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01276879522363269</v>
+        <v>0.01199554163097072</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.03448148272907064</v>
+        <v>0.03118953493369759</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>45</v>
@@ -1941,19 +1941,19 @@
         <v>34092</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>24395</v>
+        <v>25349</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>47195</v>
+        <v>46818</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.02014760126468804</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01441705353636782</v>
+        <v>0.01498049164684935</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.02789068923846943</v>
+        <v>0.02766790626181817</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>67</v>
@@ -1962,19 +1962,19 @@
         <v>64911</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>50581</v>
+        <v>48996</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>84754</v>
+        <v>85057</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01995736839010068</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01555130200280697</v>
+        <v>0.01506412487036144</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.02605804238771691</v>
+        <v>0.02615126495937537</v>
       </c>
     </row>
     <row r="22">
@@ -2007,16 +2007,16 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>5134</v>
+        <v>5321</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.0008574413903619667</v>
+        <v>0.0008574413903619666</v>
       </c>
       <c r="O22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.003033931687659581</v>
+        <v>0.003144371606203864</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2</v>
@@ -2028,7 +2028,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>4446</v>
+        <v>5151</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0004460870580446369</v>
@@ -2037,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.001366973321901615</v>
+        <v>0.001583822812069331</v>
       </c>
     </row>
     <row r="23">
